--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_0_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_0_sawtooth_05_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.30000000000052</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001707258293262015</v>
+        <v>0.001405017506982964</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007618431362658762</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.01852580907777768</v>
-      </c>
+        <v>0.003544821475448108</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.756923150519021</v>
+        <v>3.957440810600899</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.2400746155413342, 7.273771685496707]</t>
+          <t>[1.3252841496474757, 6.589597471554323]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0002356091453594722</v>
+        <v>0.003322608166664631</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0004712182907189444</v>
+        <v>0.003322608166664631</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.572368695490387</v>
+        <v>-2.000052980663773</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.251631971942235, -0.8931054190385392]</t>
+          <t>[-2.7547899544991576, -1.2453160068283875]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.409664367852287e-06</v>
+        <v>3.270519293163687e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>7.409664367852287e-06</v>
+        <v>6.541038586327375e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>11.25127165855743</v>
+        <v>11.02264946243561</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.696097437614998, 12.806445879499858]</t>
+          <t>[9.53652673620304, 12.508772188668186]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.331331331331459</v>
+        <v>8.005705705705864</v>
       </c>
       <c r="X2" t="n">
-        <v>3.596196196196265</v>
+        <v>4.984684684684787</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.066466466466652</v>
+        <v>11.02672672672694</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.06000000000032</v>
+        <v>23.77000000000028</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.982740978316414e-05</v>
+        <v>2.510346732498281e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007618431362658762</v>
+        <v>0.0003555823058074605</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.116007903975909</v>
+        <v>5.151573597365312</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.004094813089848, 8.22792099486197]</t>
+          <t>[2.707611492916108, 7.595535701814516]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001355383038064595</v>
+        <v>4.412684625032526e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001355383038064595</v>
+        <v>8.825369250065052e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>2.345974093671658</v>
+        <v>1.478026573760965</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.7925003128590409, 2.899447874484274]</t>
+          <t>[0.8742369946926551, 2.0818161528292745]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>2.356631694011568e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>2.356631694011568e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>11.09054174487817</v>
+        <v>11.01759695260821</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.504030949659803, 12.677052540096543]</t>
+          <t>[9.494524333896749, 12.540669571319668]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.07663663663684</v>
+        <v>18.17845845845867</v>
       </c>
       <c r="X3" t="n">
-        <v>12.95723723723741</v>
+        <v>15.89425425425443</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19603603603627</v>
+        <v>20.4626626626629</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_0_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_0_sawtooth_05_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.15000000000049</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001405017506982964</v>
+        <v>1.287999277232998e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003544821475448108</v>
+        <v>0.0003047892562579433</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>3.957440810600899</v>
+        <v>5.257217802913744</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.3252841496474757, 6.589597471554323]</t>
+          <t>[2.437456437090537, 8.076979168736951]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.003322608166664631</v>
+        <v>0.0002850042791069374</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003322608166664631</v>
+        <v>0.0005700085582138747</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.000052980663773</v>
+        <v>-1.144684410317002</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.7547899544991576, -1.2453160068283875]</t>
+          <t>[-1.7107371406935403, -0.5786316799404627]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.270519293163687e-07</v>
+        <v>8.532731427757234e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>6.541038586327375e-07</v>
+        <v>0.0001706546285551447</v>
       </c>
       <c r="S2" t="n">
-        <v>11.02264946243561</v>
+        <v>11.71223294842673</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.53652673620304, 12.508772188668186]</t>
+          <t>[10.195894637783773, 13.228571259069682]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.005705705705864</v>
+        <v>4.722162162162274</v>
       </c>
       <c r="X2" t="n">
-        <v>4.984684684684787</v>
+        <v>2.387027027027086</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.02672672672694</v>
+        <v>7.057297297297461</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.77000000000028</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.510346732498281e-05</v>
+        <v>0.0003272482849305813</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003555823058074605</v>
+        <v>0.00157718240333624</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.151573597365312</v>
+        <v>4.927480672908976</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.707611492916108, 7.595535701814516]</t>
+          <t>[2.0589437943620297, 7.796017551455922]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.412684625032526e-05</v>
+        <v>0.0008228052098260275</v>
       </c>
       <c r="N3" t="n">
-        <v>8.825369250065052e-05</v>
+        <v>0.0008228052098260275</v>
       </c>
       <c r="O3" t="n">
-        <v>1.478026573760965</v>
+        <v>1.327079178993886</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.8742369946926551, 2.0818161528292745]</t>
+          <t>[0.6100790538502707, 2.044079304137501]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.356631694011568e-06</v>
+        <v>0.0003199346528690583</v>
       </c>
       <c r="R3" t="n">
-        <v>2.356631694011568e-06</v>
+        <v>0.0003199346528690583</v>
       </c>
       <c r="S3" t="n">
-        <v>11.01759695260821</v>
+        <v>11.06465792114669</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.494524333896749, 12.540669571319668]</t>
+          <t>[9.38134801963573, 12.747967822657657]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.17845845845867</v>
+        <v>18.64696696696717</v>
       </c>
       <c r="X3" t="n">
-        <v>15.89425425425443</v>
+        <v>15.94930930930949</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.4626626626629</v>
+        <v>21.34462462462485</v>
       </c>
     </row>
   </sheetData>
